--- a/biology/Botanique/Gyroselle_pauciflore/Gyroselle_pauciflore.xlsx
+++ b/biology/Botanique/Gyroselle_pauciflore/Gyroselle_pauciflore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Primula pauciflora
 La Gyroselle pauciflore (Primula pauciflora) est une espèce de plantes à fleurs de la famille des Primulaceae et de la sous-famille des Primuloideae (de).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace formant une touffe, d'une hauteur allant jusqu'à 35 cm et d'un diamètre jusqu'à 20 cm. Les feuilles sont ovales, spatulées, de 10 à 20 cm de long, de couleur vert moyen.
 La floraison a lieu de mars à mai. La plante forme des ombelles de 10 à 20 fleurs de 1 à 2 cm de long, de couleur rose cerise avec le centre plus foncé.
@@ -545,10 +559,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Gyroselle pauciflore affectionne les prairies humides et les berges de ruisseaux. On la retrouve principalement à basse élévation, mais aussi parfois en milieu alpin[1].
-La plante est originaire d'Amérique du Nord. On la trouve au Nord-ouest des États-Unis. Au Canada, la Gyroselle pauciflore pousse au Manitoba et dans les autres provinces à l'ouest, ainsi qu'aux territoires du Nord-Ouest et du Yukon[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Gyroselle pauciflore affectionne les prairies humides et les berges de ruisseaux. On la retrouve principalement à basse élévation, mais aussi parfois en milieu alpin.
+La plante est originaire d'Amérique du Nord. On la trouve au Nord-ouest des États-Unis. Au Canada, la Gyroselle pauciflore pousse au Manitoba et dans les autres provinces à l'ouest, ainsi qu'aux territoires du Nord-Ouest et du Yukon.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gyroselle pauciflore (Favreau) et giroselle à petites fleurs (Alf Erling Porsild, 1974) sont les noms vernaculaires français de l'autonyme Primula pauciflora (Greene) A.R. Mast &amp; Reveal var. pauciflora[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gyroselle pauciflore (Favreau) et giroselle à petites fleurs (Alf Erling Porsild, 1974) sont les noms vernaculaires français de l'autonyme Primula pauciflora (Greene) A.R. Mast &amp; Reveal var. pauciflora.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dodecatheon meadia var. macrocarpum A. Gray (≡ Primula pauciflora var. macrocarpa)
 Dodecatheon pauciflorum Greene (basionyme)
@@ -642,7 +662,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Primula pauciflora var. cusickii (Greene) A.R. Mast &amp; Reveal
 Primula pauciflora var. distola (Reveal) A.R. Mast &amp; Reveal
@@ -677,7 +699,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Pojar, J., et A. MacKinnon. 2014. Plants of Coastal British Columbia, including Washington, Oregon and Alaska. Lone Pine. 528 p.
